--- a/500all/speech_level/speeches_CHRG-114hhrg23012.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23012.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. While I know they just called votes, we are going to try and do opening statements, and then we will break for a little bit for some quick votes and come back. This is what happens on the Hill. I apologize.    All right. Well, today this subcommittee will continue our examination of bioresearch labs and handling of dangerous pathogens, including the 66 pathogens classified as Federal Select Agents. Specifically, we will focus on the inactivation of bacteria and viruses, or making dangerous organisms harmless and incapable of spreading disease while retaining characteristics for future use including crucial biodefense research.    This research allows for the development of diagnostic tests to detect emerging infectious diseases as well as discovering vaccines and other medical countermeasures to protect us from epidemics. First, I would like to thank the GAO for their hard work and pivotal report as well as their participation in today's hearing. I would also like to thank CDC, FDA, NIH, and the Department of the Army for their participation today. Thank you for being here.    Disastrously, recent incidents at Federal bioresearch labs have revealed lackadaisical methods used to inactivate anthrax, a deadly select agent. Such negligence continues to put human lives at risk. In 2015, the Army's Dugway Proving Ground shipped live anthrax, thought to have been successfully killed, to contractors, subcontractors and private labs in all 50 States and nine foreign countries for more than a decade.    The dangers presented by such a careless mistake are unacceptable, and thankfully no one was harmed so the Army dodged a catastrophe in this matter. However, without major overhaul, how deadly agents like anthrax are handled and how research is conducted, the risk of repeating this mistake remains viable.    In 2014, this subcommittee held a hearing on the shipment of live anthrax thought to have been activated. The anthrax was shipped from a high containment lab at CDC to another lab at CDC with a lower level of biosafety. And the transfer of live anthrax potentially exposed over 80 CDC employees.    An internal CDC review and USDA inspection found multiple failures. Unapproved inactivation techniques were used; a virulent strain of anthrax was unnecessarily used in the research; lab staff lacked training and knowledge required to inactivate anthrax; lack of standard operating procedures for inactivation; inability to find anthrax samples; and disinfectant used for decontamination was expired.    These kinds of incidents drove direct action from the White House--a Federal laboratory stand-down was ordered in the summer of 2014. However, and disappointingly, even with consciousness raised about the lab safety, bioresearch labs persist in questionable inactivation practices today.    Recently, we learned that the CDC in Ft. Collins, Colorado sent a shipment of Zika, dengue, and chikungunya virus to CDC Atlanta. The viruses were used in control panels for a trioplex diagnostic test under emergency use authority. Despite CDC Ft. Collins' knowledge that the inactivation had not been confirmed, the shipment was sent. Let me restate that. Dangerous, live viruses including Zika were handled and shipped across the country. CDC Ft. Collins told CDC Atlanta don't open the package until inactivation was confirmed, and ultimately, thankfully, the package was not opened.    This continued problem of mistakenly shipping live anthrax and other pathogens led the committee to make a bipartisan request to the GAO to evaluate issues relevant to inactivation. By coincidence, the request was made 2 weeks before the discovery of the massive anthrax inactivation problems at Dugway.    Today, the GAO will present its finding and recommendations on the inactivation of dangerous pathogens. Failed inactivation has been long overlooked by regulators and the research community. The GAO brings us several important findings. First, the GAO found that the Federal Select Agent Program operated by both the Departments of Health and Human Services and Agriculture does not require laboratories to identify incidents involving failed inactivation in its reporting, resulting in inconsistent and incomplete reports.    From 2003 until 2015, the Select Agent Program reported ten incidents, but GAO documented an additional 11 situations in which select agents were not effectively inactivated. Since the Select Agent Program lacks standard practices for identifying such incidents, we simply don't know how often they occur or why. This is extremely disturbing.    In their report, the GAO noted the need for better and more consistent follow-up when problems with inactivation are discovered. The GAO found that the Federal Select Agent regulators were inconsistent in both their referrals for further investigation and in their enforcement approach. As one example, two incidents at CDC under investigation by the USDA in 2014 were not referred for further investigation. The lack of consistency by select agent regulators, CDC, and the USDA leaves this subcommittee and the public with zero confidence in regulators' ability to protect the safety of the American public.    But the GAO's most alarming discovery is the fact that today we still don't know what it takes to effectively and reliably inactivate certain select agent pathogens. In some cases, the chemical or radiological dosing is not actually effective; in other cases, the process for verifying the inactivation is not reliable. It is extremely troubling that after 15 years of efforts, we still lack competency in ensuring the safety of the public from dangerous and sometimes fatal bacteria and viruses.    This needs to be among our highest priorities for reforming the Select Agent Program. To reiterate, it has been 15 years since we became aware of the need for a Select Agent Program and clearly there is a lot of work to do.    I do want to commend the Army for its response to the shocking shipments of anthrax from the Dugway laboratory, and I want to acknowledge the cooperation we have received from both the NIH and the FDA. Both have worked to identify improvements needed and to implement those changes, including creating new offices and committing additional resources.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Mr. Chairman, sadly, there are 6 minutes left on the vote on the floor, so I will consolidate my opening statement. I will ask unanimous consent to put the full statement in the record and also all the other statements of the other members. And I just want to register my displeasure with this process this morning not letting Members fully speak.    As the chairman said, we are continuing to examine the issue of inactivation and whether we have the proper scientific understanding and processes to ensure pathogens are inactivated by shipping or releasing them. Of course, this gained public attention following the Army's Dugway Proving Ground incident, where researchers for years had been shipping live anthrax to labs across the world inadvertently.    Researchers must inactivate pathogens for a variety of reasons. For example, Federal agencies, universities, and others inactivate disease-causing agents so that vaccine development and diagnostic testing can occur in lower safety labs. This work is critical for promoting medical advancements and bolstering public health preparedness. It is part of this committee's ongoing bipartisan efforts to accelerate the path of cures and medical breakthroughs.    But as valuable as this research may be, it can also be very dangerous. All of the agencies here today share the responsibility for making sure that harmful pathogens are being handled without posing a risk to the public. Now it is true we have all taken the inactivation events we are talking about today very seriously. I know all of the agencies here have been acting to try to implement reforms to ensure that past mistakes aren't repeated. I am eager to hear about those efforts, but I also want to know what more needs to be done to address the possible risk to public health.    The GAO is here to testify about their body of work, and what they have done is identify a number of issues around the reporting and referral of incidents regarding incomplete inactivation. For example, the number of incidents of incorrect inactivation is unknown. The GAO found that the Select Agent Program failed to identify at least 11 inactivation incidents in the last 12 years. How many more are there? We don't know.    I am really interested in hearing from the witnesses about their plans to implement the GAO's recommendations and how we can go further. I am also interested to hear about the scientific gaps that exist for the inactivation process for pathogens. High containment labs across the country still have not adopted a uniform approach to the inactivation of dangerous pathogens, which of course increases the risk that this may happen again.    This is something we just simply have to get right. And so I think research is really important to national security and the process of working with these pathogens must minimize all potential risk. I guess we are lucky that nobody has been injured or killed from exposure to these agents in the last few years, but just because we have had good luck doesn't mean that we should take this for granted. And I know nobody here does. I know nobody here does.    So I am looking forward to working with everybody here and I am looking forward to working with you and the other members of the committee, Mr. Chairman, to make sure that in fact we get this right. With that I will submit the rest of my statement for the record and the other opening statements of the other Democratic members.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. That is exactly right, we are going to have to run to the floor. But I do want to welcome you all.    And as the chairman has said and the ranking member has said, we have been here before on this issue. July 16th, 2014, we had a hearing on this issue. I have visited the CDC to look at processes and procedures, and it is such a concern to us. Even in your own report you have found what is at the core of this problem. The lack of approval, the lack of written instructions, there is not a best practices process in place.    So the GAO, we are delighted to have you here and want to talk with you about three of your findings--the tracking, the gaps, scientific gaps that exist, and then the Federal Select Agent Program and the inconsistencies there. So we thank you so much for being here. Mr. Chairman, I thank you for your attention to the issue.</t>
   </si>
   <si>
@@ -97,36 +88,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Sosin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Sosin. Chairman Murphy, Ranking Member DeGette, distinguished members of the subcommittee, thank you for the opportunity to testify before you today regarding the contributions of the Centers for Disease Control and Prevention to the Federal Select Agent Program. I'm Dr. Daniel Sosin, deputy director and chief medical officer of the Office of Public Health Preparedness and Response at the CDC.    Much has changed since I testified before the subcommittee last year regarding our response to the inactivation failure involving Bacillus anthracis spores at Dugway Proving Ground. Since last November, I have been privileged to lead the Division of Select Agents and Toxins through significant change. Inspection reports are more timely, clear, risk-based, and consistent. The regulated community is stronger partner in achieving standards of biosafety and pathogen security. Incident response planning is more proactive and public awareness of select agent work and oversight is improving.    But our work is by no means done, and I am pleased to introduce Dr. Sam Edwin who joined the CDC 3 weeks ago as the new director of the Division of Select Agents and Toxins, and who will continue CDC's commitment to improving the Federal Select Agent Program.    I would like to recognize the important contributions that GAO has made to understanding challenges with the inactivation of pathogens, and proposing ways to improve laboratory practice and Government oversight. We concur with the recommendations related to the Federal Select Agent Program and have already initiated efforts to address them.    As recommended in GAO's new report, the Department of Health and Human Services is expecting to publish a final rule which will improve oversight of inactivation protocols. We are also developing guidance to be released concurrently that will assist the regulated community with implementation of the new requirements. We are improving incident reporting and data collection also recommended in the GAO report by updating the form used to report theft loss or release of select agents and toxins. We expect that incomplete inactivation as a potential cause of exposure to select agents will now be explicitly captured.    We are working to improve consistency in how we assess severity of inspection findings to focus attention where it is needed most. We are using this process to better standardize the application of enforcement actions, including referral to the Inspector General as was recommended by GAO. These steps will increase the consistency and transparency of oversight.    Research done on select agents and toxins saves lives by supporting the development of vaccines and drugs and the tools needed to identify these pathogens when disease can successfully be treated or prevented. We continually strive to balance our mission to advance safety and security with our commitment to science. The scientific methods and objectives of research with biological agents are diverse and complex, and we must be careful not to overprescribe methods and interfere with medical advances.    We are increasing regulatory compliance through collaboration with the regulated community which shares a common interest in biosafety and pathogen security and also bears responsibility for assessing the risk of their work and applying appropriate safety measures. We also use the experience and judgment of our inspectors, over 60 percent of whom hold Ph.D.s in microbiology and most of the rest master's degrees, to provide guidance on risk assessment and risk management as well as review the work of the laboratory scientists during inspections.    When necessary we set specific method requirements through rule change as we are doing with the inactivation of select agents. For 70 years the scientists and staff at CDC have been on the front lines of public health tackling pandemics and threats to the health of the American people. The Division of Select Agents and Toxins is responsive in making improvements, including the GAO recommendations on inactivation.    Work with select agents saves lives and we are balancing the need for regulatory constraints with the benefits of scientific discovery. I assure you that we have and will continue to work diligently and thoughtfully to evolve this oversight program and protect Americans from biological threats. We welcome the subcommittee's input as we continue on this path. Happy to take questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Dr. Monroe, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Monroe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Monroe. Good afternoon, Chairman Murphy, Ranking Member DeGette, members of the subcommittee. Thank you for the opportunity to testify before you today. I am Dr. Steve Monroe, CDC's associate director for Laboratory Science and Safety. I serve as the single point of accountability for the quality and safety of CDC's laboratories, and I report directly to the CDC director, Dr. Tom Frieden.    My office was created last year to provide oversight of the safety and quality of CDC's internal laboratories. This is distinct from the regulatory role of CDC's Division of Select Agents and Toxins. I exercise no authority over the Federal Select Agent Program's regulations or their enforcement activities. My office does ensure that those CDC laboratories that work with select agents comply with the select agent regulations. Moreover, our responsibility for laboratory safety includes comprehensive oversight of biological, chemical and radiation safety in all CDC laboratories whether or not they work with select agents.    CDC's laboratories play an indispensable role in protecting the public's health. Our laboratories screen newborns for rare illnesses, detect outbreaks that threaten American communities, and invent new ways to detect emerging infectious diseases. The inactivation of pathogens in CDC's laboratories is a critical part of this work.    Inactivation destroys a pathogen's ability to cause infection which allows subsequent laboratory work to occur at lower levels of containment. This both enhances safety for workers at CDC and expands the number of laboratories able to work on pathogens that would typically require higher levels of containment. Inactivation enables the generation of vaccines for viruses like influenza and polio, helps scientists find new ways to diagnose disease, and protects the safety of laboratory staff and the public.    However, it is critical that when laboratories inactivate pathogens they do so safely, completely and verifiably. The incomplete inactivation of Bacillus anthracis in a CDC laboratory in 2014 was a seminal event that led to major safety reforms within CDC including the creation of my position and office. I take very seriously the importance of safe inactivation of pathogens in our laboratories.    This afternoon I want to briefly highlight two ways we are strengthening pathogen inactivation at CDC. The first is the creation of the Laboratory Safety Review Board. This group is charged with reviewing every protocol for the inactivation and transfer of biological materials out of CDC's BSL-3 and BSL-4 laboratories to lower levels of containment. It examines every part of the protocol, reviews every standard operating procedure, and ensures that scientists who perform inactivation have appropriate skills and training. Its creation is a signature safety reform and represents a fundamental change in the oversight of inactivation of pathogens in CDC's laboratories.    The second way we aim to strengthen inactivation at CDC and throughout laboratories in general is through enhancements to the reference guide, ``Biosafety in Microbiological and Biomedical Laboratories,'' or BMBL. The BMBL created in partnership with the National Institutes of Health is a comprehensive guide on biosafety practices and policies for laboratories working with pathogens.    In recognition of the BMBL's influence with the laboratory community, the GAO report on inactivation recommended and CDC and NIH concurred that the upcoming revision to BMBL include clear definitions of inactivation and clear and consistent guidance for the development and implementation of inactivation protocols. CDC and NIH are working together to incorporate this definition and guidance in the next version of BMBL.    Laboratory safety and CDC is not a single objective that can be accomplished and checked off, but rather is an ongoing commitment to a culture of safety that demands constant dedication. Ensuring our laboratories perform effective inactivation of pathogens is an important example of CDC's commitment to this culture. We have made major strides in strengthening the agency's approach to inactivation and will continue to monitor and improve our efforts in this area.    Thank you for the opportunity to testify on this important matter. I welcome any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Dr. Davidson, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Davidson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Davidson. Mr. Chairman, Ranking Member DeGette, and members of the subcommittee, I thank you for the opportunity to testify at today's important hearing. I'm Dr. Mark Davidson, associate deputy administrator for Veterinary Services within the U.S. Department of Agriculture's Animal and Plant Health Inspection Service.    APHIS and the Centers for Disease Control and Prevention jointly oversee the Federal Select Agent Program. We ensure that anyone possessing, using, or transferring biological select agents or toxins that have the potential to pose a severe threat to the public, plant, or animal health does so safely and securely. This is a role that we take very seriously.    With my agency's focus on protecting and preserving American agriculture, APHIS scientists understand well the consequences these select agents and toxins can have. We recognize the gravity of recent incidents and I can assure you that our actions have strengthened the Federal Select Agent Program. While we cannot completely eliminate all risk, we have overlapping safeguards and processes in place to reduce the risk to low as possible.    In addition to today's GAO review, the Federal Select Agent Program has participated in a broad stakeholder review and other Federal-level studies of the program. These reviews have given us a robust set of recommendations to strengthen our oversight of the program. We have implemented a majority of these recommendations and are diligently addressing the remaining recommendations. This includes the five recommendations for APHIS in today's GAO report.    We are in the process of finalizing a proposed rule and regulated guidance that will provide clarity for the regulated community and the Select Agent Program about the roles and responsibilities for the inactivation of select agents. The rule will clarify what is required to achieve inactivation, and the related guidance will lay out standards to help researchers and others validate inactivation protocols. Once these inactivation standards are in place we will hold those that we regulate accountable for meeting the standards.    To that end, we are finalizing revisions to the standard incident reporting forms the program uses. We will now collect information about incomplete inactivation and other causes of release so that we can monitor and track issues that arise ensuring accountability for those who work with select agents and increasing our ability to analyze trends to reduce the risk of future incidents.    We are also in the final stages of developing a new enforcement system to ensure consistency across the Federal Select Agent Program. The three-tiered system assigns violations into categories based on severity and standardizes how the Federal Select Agent Program will respond to those violations. With implementation of the system which will include consistent consequences for violations related to the new inactivation guidance, enforcement under the Federal Select Agent Program will be more consistent and our stakeholders will have a clearer understanding of their responsibility.    Again APHIS takes any potential release of a select agent or toxin very seriously, but I assure you we are working closely with our Federal partners and the regulated community to develop strong cultures of safety and responsibility and policies and procedures that are science-based and to the maximum extent possible ensure the safety and security of these potentially dangerous select agents while allowing the valuable research to continue.    Mr. Chairman, this concludes my statement and I would be happy to answer any questions you or the members of the committee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Dr. Davidson.    I now recognize Mr. Potts for 5 minutes. Turn your microphone on, please, and bring it close.</t>
   </si>
   <si>
-    <t>Potts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Potts. Good afternoon, Mr. Chairman, Ranking Member DeGette, and distinguished members of the subcommittee. It is an honor to appear before you today to discuss NIH's role in the oversight of biosafety and biosecurity measures in high containment laboratories, including those that work with biological select agents and toxins.    The GAO report released today provides valuable analysis and recommendations that will inform policies and procedures on inactivation moving forward. NIH is committed to working with our Federal partners in implementing these recommendations. I am the NIH Biorisk Manager, and I'm responsible for providing regulatory compliance oversight and expert guidance to the intramural research community for matters involving high-consequence pathogens.    Consistency is essential to biosafety practice. At NIH all high containment laboratories are held to the same operational standards. Working with a team of certified biological safety professionals, we oversee laboratories on the main campus in Bethesda, Maryland; Frederick, Maryland; and Hamilton, Montana. The NIH has an important mission to conduct research that will lead to the development of new treatments, diagnostics, and vaccines to address public health needs, including medical countermeasures to address the ever-evolving threat of infectious diseases.    Methods for inactivating pathogens are an essential component of this research. Inactivation methods allow for the removal of a biological material from a high containment laboratory for downstream use. At NIH, inactivation methods and viability testing protocols are developed through collaboration of investigators and Biorisk Management staff, reviewed by the Biosafety Officer, and ultimately review and approval by the NIH Institutional Biosafety Committee. These policies and procedures are applicable to all pathogens that may be removed from a high containment laboratory.    The research community at large looks to two essential publications when conducting biological research: the ``NIH Guidelines for Research Involving Recombinant or Synthetic Nucleic Acid Molecules,'' commonly referred to as the NIH Guidelines; and the Centers for Disease Control and Prevention/NIH publication, ``Biosafety in Microbiological and Biomedical Laboratories,'' referred to as the BMBL.    In addition to these guidance documents, work with select agents is regulated by either CDC and/or USDA. NIH will look to these two agencies to establish minimum criteria and definitions for inactivation. It is important that every effort is made to harmonize language to ensure a clear and consistent message, as well as provide guidance for development, validation, and implementation of inactivation protocols.    The GAO report called for greater consistency in the collection of data related to biosafety incidents involving incomplete inactivation or failures. In order to provide greater accuracy in data collection and retrieval concerning inactivation failures, NIH revised its ``Template for Reporting Incidents'' subject to the NIH Guidelines. Internally, NIH has begun keeping records on the destination to which inactivated samples are distributed or shipped. In the upcoming revision of the BMBL, guidance will be included on documenting the shipment of such inactivated material.    NIH is committed to biosafety outreach to the broader research community. NIH will once again sponsor National Biosafety Month this October. Throughout the month, all research institutions are encouraged to refocus their attention on their biosafety policies, practices, and procedures.    This year, the outreach effort will encourage institutions to evaluate their biosafety programs, collaborate with other biosafety professionals, and commit resources to ensure they have a robust biosafety governance structure in place. In an effort to foster continuous discussion on this topic, in May 2017 the NIH will host its third Safety by Design Symposium and Workshop. The topic of the symposium will be ``Microbial Inactivation--Lessons Learned, and a Way Forward.'' This symposium will provide a venue for scientific and safety personnel to share experiences regarding the use of various inactivation modalities, successes and failures, and scientific information gaps.    In closing, I want to ensure the subcommittee that NIH remains committed both to the safety of the public and the scientists whose mission it is to find new ways to enhance health, lengthen life, and reduce illness and disability. We remain committed to preserving the public's trust in NIH research activities through best safety practices and strong leadership. Thank you for the opportunity to testify. I'll be glad to answer any questions you may have.</t>
   </si>
   <si>
@@ -271,9 +250,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I know we have met before, and again with all full disclosure I was the founder and CEO of a company that operates two level 3 containment labs with a select agent license. So I am very familiar with what you have been doing, and we have been inspected certainly by the CDC and USDA, and I give everyone kudos for the type of inspectors that went out, the thoroughness of them and so forth. And speaking from the private sector, would never have any real concerns on the oversight that I have seen by the CDC and the USDA over private labs.    So my concerns fall into two areas. One, it is very simple to deactivate, inactivate virus, very straightforward especially if you are not trying to protect the RNA or DNA and you are just killing it off. I mean it is simple, straightforward. Hard to imagine anyone would go through that process and ship anything that wasn't inactivated. That would just be, I think, gross negligence.    If you are trying to protect the RNA and DNA that gets a little trickier. And certainly, when you are into anything like bacteria where you could have spores, so you test it. You grow it, you test it, it is inactivated but you have got spores. The spores pop later, germinate. We have had some discussion before. We found it could be months down the road. And I know, Dr. Sosin, you thought it might be days, but our finding was it was months; certainly with tuberculosis we did find that.    So I guess one thing I would urge, and we have talked before, is to have a very, very rigid inactivation procedure for bacteria in particular which can be grown, inactivated, tested, it is inactivated and then subsequently, especially, you know, down the road when the spores pop. So could you maybe speak to that a little bit especially on the bacteria side?</t>
   </si>
   <si>
@@ -307,9 +283,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Well, thank you, Mr. Chairman. And thank you to our witnesses for being here today.    GAO made six recommendations in its August 2016 report to reduce the risk of incidents involving incomplete inactivation of dangerous pathogens. I would like to hear from each of the agencies on your reaction to GAO's recommendations and the length of time you believe it will take you to implement them.    First, GAO suggested that to increase the scientific information on inactivation and viability testing, the Secretaries of Health and Human Services and Agriculture should coordinate research efforts. This will help close gaps in the science of inactivation across high containment laboratories.    So I would like to ask CDC and NIH, APHIS and DoD, at this point what are the specific scientific gaps that need to be addressed, in other words what is still unknown about the science of inactivation and what is the significance of that lack of knowledge, and what will be involved in closing these gaps? When do you believe this recommendation could be substantially achieved?    Why don't we start on this side with CDC.</t>
   </si>
   <si>
@@ -334,9 +307,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman. And I am really pleased at the level of attention this committee, in particular the subcommittee, has given over the past year to our biodefense enterprise. As the chairman knows, I am focused along with my colleague across the aisle, Congresswoman Eshoo, on strengthening our Nation's biodefense enterprise with the Bill 3299 which would help us get at the problem by incentivizing responsible procurement of vaccinations and treatments needed to combat an outbreak or an attack.    However, as we have focused on in past hearings on this subject, breaches undermine the entire biodefense enterprise and are as much a matter of public health security as they are of national security. And fortunately we haven't had lapses like this leading to widespread contamination, but I am just curious and want to explore a little bit with respect to the lab safety and inconsistent enforcement.    And while I am focused on Federal Government and industry partnering to develop medical countermeasures and bolster our national strategic stockpile, I am curious. And if we use anthrax as an example, a pathogen for which we obviously, is currently stockpiled, are the lab workers and the scientists and other staff given the necessary vaccines before working around these dangerous pathogens? I would ask Major General Holcomb, are they given vaccines?    MG Holcomb. Most are, the military are. The civilian and contractors it's not a requirement. They're offered the opportunity. They certainly have all the PPE, the personal protective equipment, needed to work, but we cannot force them to take a vaccine for something that they don't choose to do.</t>
   </si>
   <si>
@@ -410,9 +380,6 @@
   </si>
   <si>
     <t>400653</t>
-  </si>
-  <si>
-    <t>Al Green</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.</t>
@@ -865,11 +832,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -891,11 +856,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -915,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -943,11 +904,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -967,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -995,11 +952,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1021,11 +976,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1047,11 +1000,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1073,11 +1024,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1097,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1125,11 +1072,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1149,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1177,11 +1120,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1201,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1229,11 +1168,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1253,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1281,11 +1216,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1307,11 +1240,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1331,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1359,11 +1288,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1383,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1411,11 +1336,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1435,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1463,11 +1384,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1487,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1515,11 +1432,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1541,11 +1456,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1565,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1593,11 +1504,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1617,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1645,11 +1552,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1669,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1697,11 +1600,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1721,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1749,11 +1648,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1773,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1801,11 +1696,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1825,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1853,11 +1744,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1879,11 +1768,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1903,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1929,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1955,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1981,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2007,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2033,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2059,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2085,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2111,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2137,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2163,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2189,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2215,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2241,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2267,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2293,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2319,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2345,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2371,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2397,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2423,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2451,11 +2296,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2475,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" t="s">
-        <v>85</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2501,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2527,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2553,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2579,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2605,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2631,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
-      <c r="H70" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2657,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2683,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2711,11 +2536,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2735,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
-      </c>
-      <c r="G74" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2761,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2787,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2813,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2839,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2865,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
-      </c>
-      <c r="G79" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2893,11 +2704,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2917,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2943,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2969,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2995,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3021,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3047,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3073,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3099,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3125,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3151,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
         <v>106</v>
-      </c>
-      <c r="H90" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3177,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3203,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3229,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3255,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3281,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3307,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3333,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3359,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
-      </c>
-      <c r="G98" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3385,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
-      </c>
-      <c r="G99" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3411,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3437,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
-      </c>
-      <c r="G101" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3463,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3489,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>105</v>
-      </c>
-      <c r="G103" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3517,11 +3280,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3541,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>131</v>
-      </c>
-      <c r="G105" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3567,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>131</v>
-      </c>
-      <c r="G106" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3593,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>131</v>
-      </c>
-      <c r="G107" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3619,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>131</v>
-      </c>
-      <c r="G108" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3645,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3671,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>131</v>
-      </c>
-      <c r="G110" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3697,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G111" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3723,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
-      </c>
-      <c r="G112" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3749,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>131</v>
-      </c>
-      <c r="G113" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3775,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
+        <v>121</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>131</v>
-      </c>
-      <c r="G114" t="s">
-        <v>132</v>
-      </c>
-      <c r="H114" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3801,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" t="s">
+        <v>121</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>132</v>
-      </c>
-      <c r="H115" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3829,11 +3568,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3855,11 +3592,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3879,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3907,11 +3640,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3931,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3959,11 +3688,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3985,11 +3712,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23012.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23012.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. While I know they just called votes, we are going to try and do opening statements, and then we will break for a little bit for some quick votes and come back. This is what happens on the Hill. I apologize.    All right. Well, today this subcommittee will continue our examination of bioresearch labs and handling of dangerous pathogens, including the 66 pathogens classified as Federal Select Agents. Specifically, we will focus on the inactivation of bacteria and viruses, or making dangerous organisms harmless and incapable of spreading disease while retaining characteristics for future use including crucial biodefense research.    This research allows for the development of diagnostic tests to detect emerging infectious diseases as well as discovering vaccines and other medical countermeasures to protect us from epidemics. First, I would like to thank the GAO for their hard work and pivotal report as well as their participation in today's hearing. I would also like to thank CDC, FDA, NIH, and the Department of the Army for their participation today. Thank you for being here.    Disastrously, recent incidents at Federal bioresearch labs have revealed lackadaisical methods used to inactivate anthrax, a deadly select agent. Such negligence continues to put human lives at risk. In 2015, the Army's Dugway Proving Ground shipped live anthrax, thought to have been successfully killed, to contractors, subcontractors and private labs in all 50 States and nine foreign countries for more than a decade.    The dangers presented by such a careless mistake are unacceptable, and thankfully no one was harmed so the Army dodged a catastrophe in this matter. However, without major overhaul, how deadly agents like anthrax are handled and how research is conducted, the risk of repeating this mistake remains viable.    In 2014, this subcommittee held a hearing on the shipment of live anthrax thought to have been activated. The anthrax was shipped from a high containment lab at CDC to another lab at CDC with a lower level of biosafety. And the transfer of live anthrax potentially exposed over 80 CDC employees.    An internal CDC review and USDA inspection found multiple failures. Unapproved inactivation techniques were used; a virulent strain of anthrax was unnecessarily used in the research; lab staff lacked training and knowledge required to inactivate anthrax; lack of standard operating procedures for inactivation; inability to find anthrax samples; and disinfectant used for decontamination was expired.    These kinds of incidents drove direct action from the White House--a Federal laboratory stand-down was ordered in the summer of 2014. However, and disappointingly, even with consciousness raised about the lab safety, bioresearch labs persist in questionable inactivation practices today.    Recently, we learned that the CDC in Ft. Collins, Colorado sent a shipment of Zika, dengue, and chikungunya virus to CDC Atlanta. The viruses were used in control panels for a trioplex diagnostic test under emergency use authority. Despite CDC Ft. Collins' knowledge that the inactivation had not been confirmed, the shipment was sent. Let me restate that. Dangerous, live viruses including Zika were handled and shipped across the country. CDC Ft. Collins told CDC Atlanta don't open the package until inactivation was confirmed, and ultimately, thankfully, the package was not opened.    This continued problem of mistakenly shipping live anthrax and other pathogens led the committee to make a bipartisan request to the GAO to evaluate issues relevant to inactivation. By coincidence, the request was made 2 weeks before the discovery of the massive anthrax inactivation problems at Dugway.    Today, the GAO will present its finding and recommendations on the inactivation of dangerous pathogens. Failed inactivation has been long overlooked by regulators and the research community. The GAO brings us several important findings. First, the GAO found that the Federal Select Agent Program operated by both the Departments of Health and Human Services and Agriculture does not require laboratories to identify incidents involving failed inactivation in its reporting, resulting in inconsistent and incomplete reports.    From 2003 until 2015, the Select Agent Program reported ten incidents, but GAO documented an additional 11 situations in which select agents were not effectively inactivated. Since the Select Agent Program lacks standard practices for identifying such incidents, we simply don't know how often they occur or why. This is extremely disturbing.    In their report, the GAO noted the need for better and more consistent follow-up when problems with inactivation are discovered. The GAO found that the Federal Select Agent regulators were inconsistent in both their referrals for further investigation and in their enforcement approach. As one example, two incidents at CDC under investigation by the USDA in 2014 were not referred for further investigation. The lack of consistency by select agent regulators, CDC, and the USDA leaves this subcommittee and the public with zero confidence in regulators' ability to protect the safety of the American public.    But the GAO's most alarming discovery is the fact that today we still don't know what it takes to effectively and reliably inactivate certain select agent pathogens. In some cases, the chemical or radiological dosing is not actually effective; in other cases, the process for verifying the inactivation is not reliable. It is extremely troubling that after 15 years of efforts, we still lack competency in ensuring the safety of the public from dangerous and sometimes fatal bacteria and viruses.    This needs to be among our highest priorities for reforming the Select Agent Program. To reiterate, it has been 15 years since we became aware of the need for a Select Agent Program and clearly there is a lot of work to do.    I do want to commend the Army for its response to the shocking shipments of anthrax from the Dugway laboratory, and I want to acknowledge the cooperation we have received from both the NIH and the FDA. Both have worked to identify improvements needed and to implement those changes, including creating new offices and committing additional resources.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400101</t>
   </si>
   <si>
+    <t>DeGette</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DeGette. Mr. Chairman, sadly, there are 6 minutes left on the vote on the floor, so I will consolidate my opening statement. I will ask unanimous consent to put the full statement in the record and also all the other statements of the other members. And I just want to register my displeasure with this process this morning not letting Members fully speak.    As the chairman said, we are continuing to examine the issue of inactivation and whether we have the proper scientific understanding and processes to ensure pathogens are inactivated by shipping or releasing them. Of course, this gained public attention following the Army's Dugway Proving Ground incident, where researchers for years had been shipping live anthrax to labs across the world inadvertently.    Researchers must inactivate pathogens for a variety of reasons. For example, Federal agencies, universities, and others inactivate disease-causing agents so that vaccine development and diagnostic testing can occur in lower safety labs. This work is critical for promoting medical advancements and bolstering public health preparedness. It is part of this committee's ongoing bipartisan efforts to accelerate the path of cures and medical breakthroughs.    But as valuable as this research may be, it can also be very dangerous. All of the agencies here today share the responsibility for making sure that harmful pathogens are being handled without posing a risk to the public. Now it is true we have all taken the inactivation events we are talking about today very seriously. I know all of the agencies here have been acting to try to implement reforms to ensure that past mistakes aren't repeated. I am eager to hear about those efforts, but I also want to know what more needs to be done to address the possible risk to public health.    The GAO is here to testify about their body of work, and what they have done is identify a number of issues around the reporting and referral of incidents regarding incomplete inactivation. For example, the number of incidents of incorrect inactivation is unknown. The GAO found that the Select Agent Program failed to identify at least 11 inactivation incidents in the last 12 years. How many more are there? We don't know.    I am really interested in hearing from the witnesses about their plans to implement the GAO's recommendations and how we can go further. I am also interested to hear about the scientific gaps that exist for the inactivation process for pathogens. High containment labs across the country still have not adopted a uniform approach to the inactivation of dangerous pathogens, which of course increases the risk that this may happen again.    This is something we just simply have to get right. And so I think research is really important to national security and the process of working with these pathogens must minimize all potential risk. I guess we are lucky that nobody has been injured or killed from exposure to these agents in the last few years, but just because we have had good luck doesn't mean that we should take this for granted. And I know nobody here does. I know nobody here does.    So I am looking forward to working with everybody here and I am looking forward to working with you and the other members of the committee, Mr. Chairman, to make sure that in fact we get this right. With that I will submit the rest of my statement for the record and the other opening statements of the other Democratic members.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Marsha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Blackburn. That is exactly right, we are going to have to run to the floor. But I do want to welcome you all.    And as the chairman has said and the ranking member has said, we have been here before on this issue. July 16th, 2014, we had a hearing on this issue. I have visited the CDC to look at processes and procedures, and it is such a concern to us. Even in your own report you have found what is at the core of this problem. The lack of approval, the lack of written instructions, there is not a best practices process in place.    So the GAO, we are delighted to have you here and want to talk with you about three of your findings--the tracking, the gaps, scientific gaps that exist, and then the Federal Select Agent Program and the inconsistencies there. So we thank you so much for being here. Mr. Chairman, I thank you for your attention to the issue.</t>
   </si>
   <si>
@@ -88,24 +109,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Sosin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Sosin. Chairman Murphy, Ranking Member DeGette, distinguished members of the subcommittee, thank you for the opportunity to testify before you today regarding the contributions of the Centers for Disease Control and Prevention to the Federal Select Agent Program. I'm Dr. Daniel Sosin, deputy director and chief medical officer of the Office of Public Health Preparedness and Response at the CDC.    Much has changed since I testified before the subcommittee last year regarding our response to the inactivation failure involving Bacillus anthracis spores at Dugway Proving Ground. Since last November, I have been privileged to lead the Division of Select Agents and Toxins through significant change. Inspection reports are more timely, clear, risk-based, and consistent. The regulated community is stronger partner in achieving standards of biosafety and pathogen security. Incident response planning is more proactive and public awareness of select agent work and oversight is improving.    But our work is by no means done, and I am pleased to introduce Dr. Sam Edwin who joined the CDC 3 weeks ago as the new director of the Division of Select Agents and Toxins, and who will continue CDC's commitment to improving the Federal Select Agent Program.    I would like to recognize the important contributions that GAO has made to understanding challenges with the inactivation of pathogens, and proposing ways to improve laboratory practice and Government oversight. We concur with the recommendations related to the Federal Select Agent Program and have already initiated efforts to address them.    As recommended in GAO's new report, the Department of Health and Human Services is expecting to publish a final rule which will improve oversight of inactivation protocols. We are also developing guidance to be released concurrently that will assist the regulated community with implementation of the new requirements. We are improving incident reporting and data collection also recommended in the GAO report by updating the form used to report theft loss or release of select agents and toxins. We expect that incomplete inactivation as a potential cause of exposure to select agents will now be explicitly captured.    We are working to improve consistency in how we assess severity of inspection findings to focus attention where it is needed most. We are using this process to better standardize the application of enforcement actions, including referral to the Inspector General as was recommended by GAO. These steps will increase the consistency and transparency of oversight.    Research done on select agents and toxins saves lives by supporting the development of vaccines and drugs and the tools needed to identify these pathogens when disease can successfully be treated or prevented. We continually strive to balance our mission to advance safety and security with our commitment to science. The scientific methods and objectives of research with biological agents are diverse and complex, and we must be careful not to overprescribe methods and interfere with medical advances.    We are increasing regulatory compliance through collaboration with the regulated community which shares a common interest in biosafety and pathogen security and also bears responsibility for assessing the risk of their work and applying appropriate safety measures. We also use the experience and judgment of our inspectors, over 60 percent of whom hold Ph.D.s in microbiology and most of the rest master's degrees, to provide guidance on risk assessment and risk management as well as review the work of the laboratory scientists during inspections.    When necessary we set specific method requirements through rule change as we are doing with the inactivation of select agents. For 70 years the scientists and staff at CDC have been on the front lines of public health tackling pandemics and threats to the health of the American people. The Division of Select Agents and Toxins is responsive in making improvements, including the GAO recommendations on inactivation.    Work with select agents saves lives and we are balancing the need for regulatory constraints with the benefits of scientific discovery. I assure you that we have and will continue to work diligently and thoughtfully to evolve this oversight program and protect Americans from biological threats. We welcome the subcommittee's input as we continue on this path. Happy to take questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Dr. Monroe, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Monroe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Monroe. Good afternoon, Chairman Murphy, Ranking Member DeGette, members of the subcommittee. Thank you for the opportunity to testify before you today. I am Dr. Steve Monroe, CDC's associate director for Laboratory Science and Safety. I serve as the single point of accountability for the quality and safety of CDC's laboratories, and I report directly to the CDC director, Dr. Tom Frieden.    My office was created last year to provide oversight of the safety and quality of CDC's internal laboratories. This is distinct from the regulatory role of CDC's Division of Select Agents and Toxins. I exercise no authority over the Federal Select Agent Program's regulations or their enforcement activities. My office does ensure that those CDC laboratories that work with select agents comply with the select agent regulations. Moreover, our responsibility for laboratory safety includes comprehensive oversight of biological, chemical and radiation safety in all CDC laboratories whether or not they work with select agents.    CDC's laboratories play an indispensable role in protecting the public's health. Our laboratories screen newborns for rare illnesses, detect outbreaks that threaten American communities, and invent new ways to detect emerging infectious diseases. The inactivation of pathogens in CDC's laboratories is a critical part of this work.    Inactivation destroys a pathogen's ability to cause infection which allows subsequent laboratory work to occur at lower levels of containment. This both enhances safety for workers at CDC and expands the number of laboratories able to work on pathogens that would typically require higher levels of containment. Inactivation enables the generation of vaccines for viruses like influenza and polio, helps scientists find new ways to diagnose disease, and protects the safety of laboratory staff and the public.    However, it is critical that when laboratories inactivate pathogens they do so safely, completely and verifiably. The incomplete inactivation of Bacillus anthracis in a CDC laboratory in 2014 was a seminal event that led to major safety reforms within CDC including the creation of my position and office. I take very seriously the importance of safe inactivation of pathogens in our laboratories.    This afternoon I want to briefly highlight two ways we are strengthening pathogen inactivation at CDC. The first is the creation of the Laboratory Safety Review Board. This group is charged with reviewing every protocol for the inactivation and transfer of biological materials out of CDC's BSL-3 and BSL-4 laboratories to lower levels of containment. It examines every part of the protocol, reviews every standard operating procedure, and ensures that scientists who perform inactivation have appropriate skills and training. Its creation is a signature safety reform and represents a fundamental change in the oversight of inactivation of pathogens in CDC's laboratories.    The second way we aim to strengthen inactivation at CDC and throughout laboratories in general is through enhancements to the reference guide, ``Biosafety in Microbiological and Biomedical Laboratories,'' or BMBL. The BMBL created in partnership with the National Institutes of Health is a comprehensive guide on biosafety practices and policies for laboratories working with pathogens.    In recognition of the BMBL's influence with the laboratory community, the GAO report on inactivation recommended and CDC and NIH concurred that the upcoming revision to BMBL include clear definitions of inactivation and clear and consistent guidance for the development and implementation of inactivation protocols. CDC and NIH are working together to incorporate this definition and guidance in the next version of BMBL.    Laboratory safety and CDC is not a single objective that can be accomplished and checked off, but rather is an ongoing commitment to a culture of safety that demands constant dedication. Ensuring our laboratories perform effective inactivation of pathogens is an important example of CDC's commitment to this culture. We have made major strides in strengthening the agency's approach to inactivation and will continue to monitor and improve our efforts in this area.    Thank you for the opportunity to testify on this important matter. I welcome any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Dr. Davidson, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Davidson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Davidson. Mr. Chairman, Ranking Member DeGette, and members of the subcommittee, I thank you for the opportunity to testify at today's important hearing. I'm Dr. Mark Davidson, associate deputy administrator for Veterinary Services within the U.S. Department of Agriculture's Animal and Plant Health Inspection Service.    APHIS and the Centers for Disease Control and Prevention jointly oversee the Federal Select Agent Program. We ensure that anyone possessing, using, or transferring biological select agents or toxins that have the potential to pose a severe threat to the public, plant, or animal health does so safely and securely. This is a role that we take very seriously.    With my agency's focus on protecting and preserving American agriculture, APHIS scientists understand well the consequences these select agents and toxins can have. We recognize the gravity of recent incidents and I can assure you that our actions have strengthened the Federal Select Agent Program. While we cannot completely eliminate all risk, we have overlapping safeguards and processes in place to reduce the risk to low as possible.    In addition to today's GAO review, the Federal Select Agent Program has participated in a broad stakeholder review and other Federal-level studies of the program. These reviews have given us a robust set of recommendations to strengthen our oversight of the program. We have implemented a majority of these recommendations and are diligently addressing the remaining recommendations. This includes the five recommendations for APHIS in today's GAO report.    We are in the process of finalizing a proposed rule and regulated guidance that will provide clarity for the regulated community and the Select Agent Program about the roles and responsibilities for the inactivation of select agents. The rule will clarify what is required to achieve inactivation, and the related guidance will lay out standards to help researchers and others validate inactivation protocols. Once these inactivation standards are in place we will hold those that we regulate accountable for meeting the standards.    To that end, we are finalizing revisions to the standard incident reporting forms the program uses. We will now collect information about incomplete inactivation and other causes of release so that we can monitor and track issues that arise ensuring accountability for those who work with select agents and increasing our ability to analyze trends to reduce the risk of future incidents.    We are also in the final stages of developing a new enforcement system to ensure consistency across the Federal Select Agent Program. The three-tiered system assigns violations into categories based on severity and standardizes how the Federal Select Agent Program will respond to those violations. With implementation of the system which will include consistent consequences for violations related to the new inactivation guidance, enforcement under the Federal Select Agent Program will be more consistent and our stakeholders will have a clearer understanding of their responsibility.    Again APHIS takes any potential release of a select agent or toxin very seriously, but I assure you we are working closely with our Federal partners and the regulated community to develop strong cultures of safety and responsibility and policies and procedures that are science-based and to the maximum extent possible ensure the safety and security of these potentially dangerous select agents while allowing the valuable research to continue.    Mr. Chairman, this concludes my statement and I would be happy to answer any questions you or the members of the committee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Dr. Davidson.    I now recognize Mr. Potts for 5 minutes. Turn your microphone on, please, and bring it close.</t>
   </si>
   <si>
+    <t>Potts</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Potts. Good afternoon, Mr. Chairman, Ranking Member DeGette, and distinguished members of the subcommittee. It is an honor to appear before you today to discuss NIH's role in the oversight of biosafety and biosecurity measures in high containment laboratories, including those that work with biological select agents and toxins.    The GAO report released today provides valuable analysis and recommendations that will inform policies and procedures on inactivation moving forward. NIH is committed to working with our Federal partners in implementing these recommendations. I am the NIH Biorisk Manager, and I'm responsible for providing regulatory compliance oversight and expert guidance to the intramural research community for matters involving high-consequence pathogens.    Consistency is essential to biosafety practice. At NIH all high containment laboratories are held to the same operational standards. Working with a team of certified biological safety professionals, we oversee laboratories on the main campus in Bethesda, Maryland; Frederick, Maryland; and Hamilton, Montana. The NIH has an important mission to conduct research that will lead to the development of new treatments, diagnostics, and vaccines to address public health needs, including medical countermeasures to address the ever-evolving threat of infectious diseases.    Methods for inactivating pathogens are an essential component of this research. Inactivation methods allow for the removal of a biological material from a high containment laboratory for downstream use. At NIH, inactivation methods and viability testing protocols are developed through collaboration of investigators and Biorisk Management staff, reviewed by the Biosafety Officer, and ultimately review and approval by the NIH Institutional Biosafety Committee. These policies and procedures are applicable to all pathogens that may be removed from a high containment laboratory.    The research community at large looks to two essential publications when conducting biological research: the ``NIH Guidelines for Research Involving Recombinant or Synthetic Nucleic Acid Molecules,'' commonly referred to as the NIH Guidelines; and the Centers for Disease Control and Prevention/NIH publication, ``Biosafety in Microbiological and Biomedical Laboratories,'' referred to as the BMBL.    In addition to these guidance documents, work with select agents is regulated by either CDC and/or USDA. NIH will look to these two agencies to establish minimum criteria and definitions for inactivation. It is important that every effort is made to harmonize language to ensure a clear and consistent message, as well as provide guidance for development, validation, and implementation of inactivation protocols.    The GAO report called for greater consistency in the collection of data related to biosafety incidents involving incomplete inactivation or failures. In order to provide greater accuracy in data collection and retrieval concerning inactivation failures, NIH revised its ``Template for Reporting Incidents'' subject to the NIH Guidelines. Internally, NIH has begun keeping records on the destination to which inactivated samples are distributed or shipped. In the upcoming revision of the BMBL, guidance will be included on documenting the shipment of such inactivated material.    NIH is committed to biosafety outreach to the broader research community. NIH will once again sponsor National Biosafety Month this October. Throughout the month, all research institutions are encouraged to refocus their attention on their biosafety policies, practices, and procedures.    This year, the outreach effort will encourage institutions to evaluate their biosafety programs, collaborate with other biosafety professionals, and commit resources to ensure they have a robust biosafety governance structure in place. In an effort to foster continuous discussion on this topic, in May 2017 the NIH will host its third Safety by Design Symposium and Workshop. The topic of the symposium will be ``Microbial Inactivation--Lessons Learned, and a Way Forward.'' This symposium will provide a venue for scientific and safety personnel to share experiences regarding the use of various inactivation modalities, successes and failures, and scientific information gaps.    In closing, I want to ensure the subcommittee that NIH remains committed both to the safety of the public and the scientists whose mission it is to find new ways to enhance health, lengthen life, and reduce illness and disability. We remain committed to preserving the public's trust in NIH research activities through best safety practices and strong leadership. Thank you for the opportunity to testify. I'll be glad to answer any questions you may have.</t>
   </si>
   <si>
@@ -250,6 +283,12 @@
     <t>412563</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I know we have met before, and again with all full disclosure I was the founder and CEO of a company that operates two level 3 containment labs with a select agent license. So I am very familiar with what you have been doing, and we have been inspected certainly by the CDC and USDA, and I give everyone kudos for the type of inspectors that went out, the thoroughness of them and so forth. And speaking from the private sector, would never have any real concerns on the oversight that I have seen by the CDC and the USDA over private labs.    So my concerns fall into two areas. One, it is very simple to deactivate, inactivate virus, very straightforward especially if you are not trying to protect the RNA or DNA and you are just killing it off. I mean it is simple, straightforward. Hard to imagine anyone would go through that process and ship anything that wasn't inactivated. That would just be, I think, gross negligence.    If you are trying to protect the RNA and DNA that gets a little trickier. And certainly, when you are into anything like bacteria where you could have spores, so you test it. You grow it, you test it, it is inactivated but you have got spores. The spores pop later, germinate. We have had some discussion before. We found it could be months down the road. And I know, Dr. Sosin, you thought it might be days, but our finding was it was months; certainly with tuberculosis we did find that.    So I guess one thing I would urge, and we have talked before, is to have a very, very rigid inactivation procedure for bacteria in particular which can be grown, inactivated, tested, it is inactivated and then subsequently, especially, you know, down the road when the spores pop. So could you maybe speak to that a little bit especially on the bacteria side?</t>
   </si>
   <si>
@@ -283,6 +322,12 @@
     <t>412195</t>
   </si>
   <si>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Castor. Well, thank you, Mr. Chairman. And thank you to our witnesses for being here today.    GAO made six recommendations in its August 2016 report to reduce the risk of incidents involving incomplete inactivation of dangerous pathogens. I would like to hear from each of the agencies on your reaction to GAO's recommendations and the length of time you believe it will take you to implement them.    First, GAO suggested that to increase the scientific information on inactivation and viability testing, the Secretaries of Health and Human Services and Agriculture should coordinate research efforts. This will help close gaps in the science of inactivation across high containment laboratories.    So I would like to ask CDC and NIH, APHIS and DoD, at this point what are the specific scientific gaps that need to be addressed, in other words what is still unknown about the science of inactivation and what is the significance of that lack of knowledge, and what will be involved in closing these gaps? When do you believe this recommendation could be substantially achieved?    Why don't we start on this side with CDC.</t>
   </si>
   <si>
@@ -307,6 +352,12 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman. And I am really pleased at the level of attention this committee, in particular the subcommittee, has given over the past year to our biodefense enterprise. As the chairman knows, I am focused along with my colleague across the aisle, Congresswoman Eshoo, on strengthening our Nation's biodefense enterprise with the Bill 3299 which would help us get at the problem by incentivizing responsible procurement of vaccinations and treatments needed to combat an outbreak or an attack.    However, as we have focused on in past hearings on this subject, breaches undermine the entire biodefense enterprise and are as much a matter of public health security as they are of national security. And fortunately we haven't had lapses like this leading to widespread contamination, but I am just curious and want to explore a little bit with respect to the lab safety and inconsistent enforcement.    And while I am focused on Federal Government and industry partnering to develop medical countermeasures and bolster our national strategic stockpile, I am curious. And if we use anthrax as an example, a pathogen for which we obviously, is currently stockpiled, are the lab workers and the scientists and other staff given the necessary vaccines before working around these dangerous pathogens? I would ask Major General Holcomb, are they given vaccines?    MG Holcomb. Most are, the military are. The civilian and contractors it's not a requirement. They're offered the opportunity. They certainly have all the PPE, the personal protective equipment, needed to work, but we cannot force them to take a vaccine for something that they don't choose to do.</t>
   </si>
   <si>
@@ -380,6 +431,12 @@
   </si>
   <si>
     <t>400653</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Al</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.</t>
@@ -782,7 +839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,7 +847,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,2909 +869,3439 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>89</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>89</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G70" t="s">
+        <v>89</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G72" t="s">
+        <v>89</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G74" t="s">
+        <v>102</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G78" t="s">
+        <v>102</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G79" t="s">
+        <v>102</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G81" t="s">
+        <v>112</v>
+      </c>
       <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G82" t="s">
+        <v>112</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G84" t="s">
+        <v>112</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G86" t="s">
+        <v>112</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>96</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G88" t="s">
+        <v>112</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>96</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G90" t="s">
+        <v>112</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>96</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G92" t="s">
+        <v>112</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>96</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G94" t="s">
+        <v>112</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>96</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G96" t="s">
+        <v>112</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>96</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G98" t="s">
+        <v>112</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>96</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s">
+        <v>112</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>96</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G101" t="s">
+        <v>112</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>96</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G103" t="s">
+        <v>112</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>121</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G105" t="s">
+        <v>139</v>
+      </c>
       <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G106" t="s">
+        <v>139</v>
+      </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>121</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G107" t="s">
+        <v>139</v>
+      </c>
       <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>121</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G108" t="s">
+        <v>139</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>121</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G109" t="s">
+        <v>139</v>
+      </c>
       <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G110" t="s">
+        <v>139</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>121</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G111" t="s">
+        <v>139</v>
+      </c>
       <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>121</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G112" t="s">
+        <v>139</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>121</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G113" t="s">
+        <v>139</v>
+      </c>
       <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>121</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G114" t="s">
+        <v>139</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>121</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G115" t="s">
+        <v>139</v>
+      </c>
       <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>139</v>
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23012.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23012.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Murphy</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400101</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>DeGette</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>400032</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Blackburn</t>
@@ -839,7 +851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,7 +859,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,3436 +884,3724 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
         <v>34</v>
       </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
         <v>34</v>
       </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
         <v>34</v>
       </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
         <v>34</v>
       </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" t="s">
         <v>34</v>
       </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G74" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s">
         <v>34</v>
       </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G78" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G79" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G81" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G82" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s">
         <v>34</v>
       </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I84" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" t="s">
         <v>34</v>
       </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G86" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" t="s">
         <v>34</v>
       </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G88" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G90" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G92" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G94" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95" t="s">
-        <v>31</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G96" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" t="s">
-        <v>31</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G98" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G99" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G101" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" t="s">
         <v>34</v>
       </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G103" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H103" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G105" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G106" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G107" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G108" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I108" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G109" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G110" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G111" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G112" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G113" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G114" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G115" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
-      </c>
-      <c r="G118" t="s">
         <v>34</v>
       </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>38</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
-      </c>
-      <c r="G120" t="s">
         <v>34</v>
       </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>38</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>158</v>
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
